--- a/data/trans_bre/P2405-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2405-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-1,22; 0,01</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; -0,17</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; -0,2</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 123,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,68; -6,39</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,68%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,77; -0,12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; -0,51</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; -0,29</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,16; -48,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -39,54</t>
         </is>
       </c>
     </row>
@@ -764,27 +764,27 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,21%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; -0,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; -0,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; -0,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,71; 9,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,76; -64,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,16; -48,58</t>
         </is>
       </c>
     </row>
